--- a/data/pca/factorExposure/factorExposure_2018-11-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.07773987600936756</v>
+        <v>0.05159086187864812</v>
       </c>
       <c r="C2">
-        <v>0.05249756152849118</v>
+        <v>-0.02814583106389512</v>
       </c>
       <c r="D2">
-        <v>-0.06758109758023369</v>
+        <v>-0.01888861662762705</v>
       </c>
       <c r="E2">
-        <v>-0.0001223791188127936</v>
+        <v>-0.03055210549189743</v>
       </c>
       <c r="F2">
-        <v>0.1129999350786542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01011943885355081</v>
+      </c>
+      <c r="G2">
+        <v>0.1094485523793374</v>
+      </c>
+      <c r="H2">
+        <v>0.07479133381192798</v>
+      </c>
+      <c r="I2">
+        <v>0.06300470040668459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.182106469027271</v>
+        <v>0.1293284849209116</v>
       </c>
       <c r="C3">
-        <v>-0.0283498818887936</v>
+        <v>-0.06949861521254304</v>
       </c>
       <c r="D3">
-        <v>-0.1382959475751327</v>
+        <v>-0.005581400110451002</v>
       </c>
       <c r="E3">
-        <v>0.05253825051457015</v>
+        <v>0.0192826337285989</v>
       </c>
       <c r="F3">
-        <v>0.3720601647570582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0144663985763406</v>
+      </c>
+      <c r="G3">
+        <v>0.3606971157435879</v>
+      </c>
+      <c r="H3">
+        <v>0.282785001929752</v>
+      </c>
+      <c r="I3">
+        <v>0.04838900446676207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07408290028460282</v>
+        <v>0.05902506510341753</v>
       </c>
       <c r="C4">
-        <v>0.02279371402464133</v>
+        <v>-0.04046316853837965</v>
       </c>
       <c r="D4">
-        <v>-0.05697746146645861</v>
+        <v>0.01077107684224322</v>
       </c>
       <c r="E4">
-        <v>0.04618676925777188</v>
+        <v>-0.03568139320939456</v>
       </c>
       <c r="F4">
-        <v>0.05601852266797078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03460095450151961</v>
+      </c>
+      <c r="G4">
+        <v>0.06813472984722579</v>
+      </c>
+      <c r="H4">
+        <v>0.02408277933387351</v>
+      </c>
+      <c r="I4">
+        <v>0.04266278157523853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.003488683987648893</v>
+        <v>0.02806150060026654</v>
       </c>
       <c r="C6">
-        <v>-8.642704757307054e-05</v>
+        <v>-0.01627741590405225</v>
       </c>
       <c r="D6">
-        <v>-0.0002454592255699669</v>
+        <v>0.001754276616171904</v>
       </c>
       <c r="E6">
-        <v>-0.004892666858596335</v>
+        <v>-0.007148087045209485</v>
       </c>
       <c r="F6">
-        <v>0.002721531891633092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02141758334650889</v>
+      </c>
+      <c r="G6">
+        <v>0.01735437756583417</v>
+      </c>
+      <c r="H6">
+        <v>-0.03318034291293565</v>
+      </c>
+      <c r="I6">
+        <v>-0.007186329697538706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03538243503160783</v>
+        <v>0.03034467750966779</v>
       </c>
       <c r="C7">
-        <v>0.01840014427944248</v>
+        <v>-0.01406265940688059</v>
       </c>
       <c r="D7">
-        <v>-0.04252490775895428</v>
+        <v>0.03394418352155177</v>
       </c>
       <c r="E7">
-        <v>0.0054259605920688</v>
+        <v>-0.01984157129919894</v>
       </c>
       <c r="F7">
-        <v>0.08109826376460005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01644051344351828</v>
+      </c>
+      <c r="G7">
+        <v>0.05034450219876312</v>
+      </c>
+      <c r="H7">
+        <v>0.04760457458628716</v>
+      </c>
+      <c r="I7">
+        <v>-0.002141522303185527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03942284979265088</v>
+        <v>0.01471939527540858</v>
       </c>
       <c r="C8">
-        <v>-0.005558788644856361</v>
+        <v>-0.04072388825702906</v>
       </c>
       <c r="D8">
-        <v>-0.04632867133009726</v>
+        <v>0.009797020941532038</v>
       </c>
       <c r="E8">
-        <v>0.04455651354696478</v>
+        <v>-0.01205087014026615</v>
       </c>
       <c r="F8">
-        <v>0.07365700412447126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.009895604633144182</v>
+      </c>
+      <c r="G8">
+        <v>0.06680809927132932</v>
+      </c>
+      <c r="H8">
+        <v>0.05408763903661014</v>
+      </c>
+      <c r="I8">
+        <v>0.03288012194535072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0587413084347548</v>
+        <v>0.04896496367375487</v>
       </c>
       <c r="C9">
-        <v>0.02544868888053835</v>
+        <v>-0.03323480370682948</v>
       </c>
       <c r="D9">
-        <v>-0.04227874214462659</v>
+        <v>0.01418189506518947</v>
       </c>
       <c r="E9">
-        <v>0.0575032806670438</v>
+        <v>-0.03069099239027789</v>
       </c>
       <c r="F9">
-        <v>0.05001429959149364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01863064895772204</v>
+      </c>
+      <c r="G9">
+        <v>0.07369539738810817</v>
+      </c>
+      <c r="H9">
+        <v>0.02646071489248901</v>
+      </c>
+      <c r="I9">
+        <v>0.04344680170536884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.04169395256096119</v>
+        <v>0.0654810740712804</v>
       </c>
       <c r="C10">
-        <v>0.08466122356700584</v>
+        <v>0.157311163604956</v>
       </c>
       <c r="D10">
-        <v>0.1128236140122676</v>
+        <v>-0.008699758176368576</v>
       </c>
       <c r="E10">
-        <v>-0.0828501763716048</v>
+        <v>0.01818068126972904</v>
       </c>
       <c r="F10">
-        <v>0.04230776905198414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.05837233929907718</v>
+      </c>
+      <c r="G10">
+        <v>0.04339406891740134</v>
+      </c>
+      <c r="H10">
+        <v>0.03165886785820518</v>
+      </c>
+      <c r="I10">
+        <v>0.03762242192556551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04974827374463844</v>
+        <v>0.04098368019064429</v>
       </c>
       <c r="C11">
-        <v>0.0006805998400753661</v>
+        <v>-0.03740294513532855</v>
       </c>
       <c r="D11">
-        <v>-0.02909345488887543</v>
+        <v>-0.006750255861375645</v>
       </c>
       <c r="E11">
-        <v>0.006495203620022295</v>
+        <v>-0.009503924499971651</v>
       </c>
       <c r="F11">
-        <v>0.04864829523478616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.004225832537084339</v>
+      </c>
+      <c r="G11">
+        <v>0.03836457927522764</v>
+      </c>
+      <c r="H11">
+        <v>0.0004691096639441336</v>
+      </c>
+      <c r="I11">
+        <v>0.01613121952448467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04210031301462893</v>
+        <v>0.03918052694131167</v>
       </c>
       <c r="C12">
-        <v>0.001243455581612089</v>
+        <v>-0.03391634843713316</v>
       </c>
       <c r="D12">
-        <v>-0.0246655350321428</v>
+        <v>0.005038896678855509</v>
       </c>
       <c r="E12">
-        <v>0.02554829587343237</v>
+        <v>-0.01104000803907416</v>
       </c>
       <c r="F12">
-        <v>0.03977640540037648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01383915827551492</v>
+      </c>
+      <c r="G12">
+        <v>0.01741958107292199</v>
+      </c>
+      <c r="H12">
+        <v>0.003400903167219145</v>
+      </c>
+      <c r="I12">
+        <v>0.006979098621032916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04680847519080459</v>
+        <v>0.03685802810605394</v>
       </c>
       <c r="C13">
-        <v>0.01399007072074801</v>
+        <v>-0.02135358429898863</v>
       </c>
       <c r="D13">
-        <v>-0.04792516753338353</v>
+        <v>-0.018170473421009</v>
       </c>
       <c r="E13">
-        <v>-0.01439223482377876</v>
+        <v>-0.003574517084957429</v>
       </c>
       <c r="F13">
-        <v>0.1047884367744503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02528353328786715</v>
+      </c>
+      <c r="G13">
+        <v>0.08877027435491629</v>
+      </c>
+      <c r="H13">
+        <v>0.03976356264193751</v>
+      </c>
+      <c r="I13">
+        <v>0.03357752549945489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0239103699341598</v>
+        <v>0.0197962333915974</v>
       </c>
       <c r="C14">
-        <v>0.01522959855144724</v>
+        <v>-0.01758061280975693</v>
       </c>
       <c r="D14">
-        <v>-0.04329143625855556</v>
+        <v>0.00495394777264201</v>
       </c>
       <c r="E14">
-        <v>0.02069969027959052</v>
+        <v>-0.02613025721437649</v>
       </c>
       <c r="F14">
-        <v>0.03465690388257538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01306505853228624</v>
+      </c>
+      <c r="G14">
+        <v>0.03663811950682289</v>
+      </c>
+      <c r="H14">
+        <v>0.06396569060941565</v>
+      </c>
+      <c r="I14">
+        <v>0.01578965277248129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03995884661174785</v>
+        <v>0.03464374566807837</v>
       </c>
       <c r="C16">
-        <v>0.001055689310254117</v>
+        <v>-0.03411967891828652</v>
       </c>
       <c r="D16">
-        <v>-0.02668146066301967</v>
+        <v>-0.001590923711495729</v>
       </c>
       <c r="E16">
-        <v>0.010539157014121</v>
+        <v>-0.01182469779289629</v>
       </c>
       <c r="F16">
-        <v>0.03504865377799251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.005557250516712213</v>
+      </c>
+      <c r="G16">
+        <v>0.03271733989073214</v>
+      </c>
+      <c r="H16">
+        <v>0.003621222885379877</v>
+      </c>
+      <c r="I16">
+        <v>0.005984487733494795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06115819660799736</v>
+        <v>0.04549931889319962</v>
       </c>
       <c r="C19">
-        <v>-0.007520292977777035</v>
+        <v>-0.03959644783101822</v>
       </c>
       <c r="D19">
-        <v>-0.04212513659674184</v>
+        <v>-0.007194069187973554</v>
       </c>
       <c r="E19">
-        <v>0.005127114653249411</v>
+        <v>-0.01219892085972924</v>
       </c>
       <c r="F19">
-        <v>0.08617984674469081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.007298412245604521</v>
+      </c>
+      <c r="G19">
+        <v>0.08647380512787348</v>
+      </c>
+      <c r="H19">
+        <v>0.04799473588720635</v>
+      </c>
+      <c r="I19">
+        <v>0.01894679632519621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02282327001399651</v>
+        <v>0.01520875100445479</v>
       </c>
       <c r="C20">
-        <v>0.0110820484914623</v>
+        <v>-0.01893665142025462</v>
       </c>
       <c r="D20">
-        <v>-0.04190624056134534</v>
+        <v>0.003200477367919072</v>
       </c>
       <c r="E20">
-        <v>0.03219503298222661</v>
+        <v>-0.01475908266614806</v>
       </c>
       <c r="F20">
-        <v>0.06980243074937433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01159414728394098</v>
+      </c>
+      <c r="G20">
+        <v>0.05752457544260714</v>
+      </c>
+      <c r="H20">
+        <v>0.06146046163325605</v>
+      </c>
+      <c r="I20">
+        <v>0.00542397431125788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02195598180990671</v>
+        <v>0.02819667557946855</v>
       </c>
       <c r="C21">
-        <v>-0.008602084764849487</v>
+        <v>-0.02262618980627661</v>
       </c>
       <c r="D21">
-        <v>-0.03557418385233938</v>
+        <v>0.0101156344312012</v>
       </c>
       <c r="E21">
-        <v>0.005563289130555517</v>
+        <v>-0.006302829072676645</v>
       </c>
       <c r="F21">
-        <v>0.08587500545764817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.003000987567857468</v>
+      </c>
+      <c r="G21">
+        <v>0.06537982688124076</v>
+      </c>
+      <c r="H21">
+        <v>0.02742171294657653</v>
+      </c>
+      <c r="I21">
+        <v>0.05260523790807616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03908025697880561</v>
+        <v>0.03302765626507274</v>
       </c>
       <c r="C24">
-        <v>-0.0005158374279546624</v>
+        <v>-0.03116826682763996</v>
       </c>
       <c r="D24">
-        <v>-0.02522643136596129</v>
+        <v>-0.000813467278370967</v>
       </c>
       <c r="E24">
-        <v>0.01310432162351928</v>
+        <v>-0.009521469860839838</v>
       </c>
       <c r="F24">
-        <v>0.04709141999906029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.004705763336983546</v>
+      </c>
+      <c r="G24">
+        <v>0.03646795376362826</v>
+      </c>
+      <c r="H24">
+        <v>0.0007745826273266852</v>
+      </c>
+      <c r="I24">
+        <v>0.009095103740652583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04196225930309851</v>
+        <v>0.04150344061581321</v>
       </c>
       <c r="C25">
-        <v>0.002947713084090319</v>
+        <v>-0.03072229448355267</v>
       </c>
       <c r="D25">
-        <v>-0.02846429973624089</v>
+        <v>-0.001904782005158391</v>
       </c>
       <c r="E25">
-        <v>0.01659190155162346</v>
+        <v>-0.009686263988471007</v>
       </c>
       <c r="F25">
-        <v>0.05265444324740676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01249310255002026</v>
+      </c>
+      <c r="G25">
+        <v>0.04705160087867628</v>
+      </c>
+      <c r="H25">
+        <v>-0.002938054013959628</v>
+      </c>
+      <c r="I25">
+        <v>0.01708058110683185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01924429341095035</v>
+        <v>0.01303625360480263</v>
       </c>
       <c r="C26">
-        <v>-0.005996787147891042</v>
+        <v>-0.02283161769465966</v>
       </c>
       <c r="D26">
-        <v>-0.05298530835285546</v>
+        <v>-0.006258951586176231</v>
       </c>
       <c r="E26">
-        <v>0.003120339927728094</v>
+        <v>0.002466511210372216</v>
       </c>
       <c r="F26">
-        <v>0.03749625131336455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02047041223107373</v>
+      </c>
+      <c r="G26">
+        <v>0.04265872363018566</v>
+      </c>
+      <c r="H26">
+        <v>0.03980739405424527</v>
+      </c>
+      <c r="I26">
+        <v>0.01337465487985389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1032865016450745</v>
+        <v>0.05803522354708188</v>
       </c>
       <c r="C27">
-        <v>0.03446671803008422</v>
+        <v>-0.02136516645927313</v>
       </c>
       <c r="D27">
-        <v>-0.03965129557015244</v>
+        <v>0.001319577029008755</v>
       </c>
       <c r="E27">
-        <v>0.0381187500078803</v>
+        <v>-0.02627984417598584</v>
       </c>
       <c r="F27">
-        <v>0.04830747821965006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.003215569303119909</v>
+      </c>
+      <c r="G27">
+        <v>0.04096259906590023</v>
+      </c>
+      <c r="H27">
+        <v>0.03516810014076337</v>
+      </c>
+      <c r="I27">
+        <v>0.01814763748455633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.05917042268874974</v>
+        <v>0.09504500040314311</v>
       </c>
       <c r="C28">
-        <v>0.1090542342442464</v>
+        <v>0.2386039066552486</v>
       </c>
       <c r="D28">
-        <v>0.1865595564914302</v>
+        <v>-0.005505306398982655</v>
       </c>
       <c r="E28">
-        <v>-0.1159253404777753</v>
+        <v>0.03250677257952876</v>
       </c>
       <c r="F28">
-        <v>0.01087504232396864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.06940875194991208</v>
+      </c>
+      <c r="G28">
+        <v>0.01745808739630753</v>
+      </c>
+      <c r="H28">
+        <v>0.05107685128678597</v>
+      </c>
+      <c r="I28">
+        <v>0.02899425304769617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02556603026932056</v>
+        <v>0.02151721973592547</v>
       </c>
       <c r="C29">
-        <v>0.009610147016596205</v>
+        <v>-0.01868291107394566</v>
       </c>
       <c r="D29">
-        <v>-0.04346687185825411</v>
+        <v>0.006820089487447997</v>
       </c>
       <c r="E29">
-        <v>0.0325496362412392</v>
+        <v>-0.0256765249821699</v>
       </c>
       <c r="F29">
-        <v>0.01779634571611615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01886253032662697</v>
+      </c>
+      <c r="G29">
+        <v>0.02993158735732851</v>
+      </c>
+      <c r="H29">
+        <v>0.06173747873494546</v>
+      </c>
+      <c r="I29">
+        <v>0.01930752821714284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09879472135182031</v>
+        <v>0.0794268191972978</v>
       </c>
       <c r="C30">
-        <v>0.04865895759962226</v>
+        <v>-0.05169924404495202</v>
       </c>
       <c r="D30">
-        <v>-0.06821415573623979</v>
+        <v>-0.04382580535454417</v>
       </c>
       <c r="E30">
-        <v>0.02009757024632047</v>
+        <v>-0.04270019970684392</v>
       </c>
       <c r="F30">
-        <v>0.103433270961745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02838381114079039</v>
+      </c>
+      <c r="G30">
+        <v>0.09981495343404645</v>
+      </c>
+      <c r="H30">
+        <v>0.01522101158122405</v>
+      </c>
+      <c r="I30">
+        <v>-0.004868647799939891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0569419323435024</v>
+        <v>0.05337992615636406</v>
       </c>
       <c r="C31">
-        <v>0.01546025944649131</v>
+        <v>-0.02115996892047882</v>
       </c>
       <c r="D31">
-        <v>-0.03675140700032417</v>
+        <v>-0.008338283105271809</v>
       </c>
       <c r="E31">
-        <v>-0.02455799092267419</v>
+        <v>-0.0243504004993746</v>
       </c>
       <c r="F31">
-        <v>-0.02133130402604337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0147263822864081</v>
+      </c>
+      <c r="G31">
+        <v>-0.003698299332627901</v>
+      </c>
+      <c r="H31">
+        <v>0.05620549275172896</v>
+      </c>
+      <c r="I31">
+        <v>0.03986780467810536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05508356987286565</v>
+        <v>0.02997878802010664</v>
       </c>
       <c r="C32">
-        <v>0.01057934998299086</v>
+        <v>-0.03983335568116559</v>
       </c>
       <c r="D32">
-        <v>-0.0537126261198489</v>
+        <v>0.0133345891819801</v>
       </c>
       <c r="E32">
-        <v>0.03673479971693586</v>
+        <v>-0.04603482021311724</v>
       </c>
       <c r="F32">
-        <v>0.07666531949253909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.002982705451609495</v>
+      </c>
+      <c r="G32">
+        <v>0.08576098177839044</v>
+      </c>
+      <c r="H32">
+        <v>0.006141955795170078</v>
+      </c>
+      <c r="I32">
+        <v>0.002843178118863866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05025347070206768</v>
+        <v>0.04293232118824666</v>
       </c>
       <c r="C33">
-        <v>-0.006273001458906487</v>
+        <v>-0.04987142082617734</v>
       </c>
       <c r="D33">
-        <v>-0.07472632813550455</v>
+        <v>-0.02138036734318885</v>
       </c>
       <c r="E33">
-        <v>0.01428000516811475</v>
+        <v>-0.006885829397973288</v>
       </c>
       <c r="F33">
-        <v>0.07122683921327301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.007975941878145024</v>
+      </c>
+      <c r="G33">
+        <v>0.06785917591512401</v>
+      </c>
+      <c r="H33">
+        <v>0.04972506091633243</v>
+      </c>
+      <c r="I33">
+        <v>0.03479470440903242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04061052240264659</v>
+        <v>0.03598113929344922</v>
       </c>
       <c r="C34">
-        <v>0.008078043999578658</v>
+        <v>-0.03625122036561152</v>
       </c>
       <c r="D34">
-        <v>-0.03278907775543361</v>
+        <v>0.004501003549072434</v>
       </c>
       <c r="E34">
-        <v>0.01791768663216117</v>
+        <v>-0.02240522984907851</v>
       </c>
       <c r="F34">
-        <v>0.04080097748525102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.002042120769735306</v>
+      </c>
+      <c r="G34">
+        <v>0.03827861282705999</v>
+      </c>
+      <c r="H34">
+        <v>0.003178999974729148</v>
+      </c>
+      <c r="I34">
+        <v>0.01210927183042757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01614575467488422</v>
+        <v>0.01771224495920174</v>
       </c>
       <c r="C36">
-        <v>0.01376285737508948</v>
+        <v>-0.0006134742641239236</v>
       </c>
       <c r="D36">
-        <v>-0.01206991738397378</v>
+        <v>0.002561099358392062</v>
       </c>
       <c r="E36">
-        <v>0.009963725800651439</v>
+        <v>-0.009015105684759659</v>
       </c>
       <c r="F36">
-        <v>0.02273457965950121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01151455007748838</v>
+      </c>
+      <c r="G36">
+        <v>0.025128906988049</v>
+      </c>
+      <c r="H36">
+        <v>0.03542839302681883</v>
+      </c>
+      <c r="I36">
+        <v>0.02395661741804456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01748394397022976</v>
+        <v>0.02102954651054443</v>
       </c>
       <c r="C38">
-        <v>0.006849882420051285</v>
+        <v>-0.006954824321684517</v>
       </c>
       <c r="D38">
-        <v>0.01175185486479633</v>
+        <v>0.005753491305836393</v>
       </c>
       <c r="E38">
-        <v>0.005887397504562999</v>
+        <v>-0.009973627242458446</v>
       </c>
       <c r="F38">
-        <v>0.01405542976416599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.02542842286955627</v>
+      </c>
+      <c r="G38">
+        <v>0.03819933575144747</v>
+      </c>
+      <c r="H38">
+        <v>0.02655975231548302</v>
+      </c>
+      <c r="I38">
+        <v>0.02900384699728244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05751599362346392</v>
+        <v>0.04240994160295286</v>
       </c>
       <c r="C39">
-        <v>0.007553041473867136</v>
+        <v>-0.05225127947614073</v>
       </c>
       <c r="D39">
-        <v>-0.04527279101358364</v>
+        <v>-0.007197510449101532</v>
       </c>
       <c r="E39">
-        <v>0.003977674225607151</v>
+        <v>-0.01980960844694989</v>
       </c>
       <c r="F39">
-        <v>0.04017877520481046</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01748343029125701</v>
+      </c>
+      <c r="G39">
+        <v>0.0587569030166223</v>
+      </c>
+      <c r="H39">
+        <v>-0.005614648784233688</v>
+      </c>
+      <c r="I39">
+        <v>0.02396352302966026</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0533326161941545</v>
+        <v>0.0438656830419249</v>
       </c>
       <c r="C40">
-        <v>0.02658558405663183</v>
+        <v>-0.0397011766461975</v>
       </c>
       <c r="D40">
-        <v>-0.07379245696504017</v>
+        <v>-0.02423869176448211</v>
       </c>
       <c r="E40">
-        <v>-0.01124217040232622</v>
+        <v>-0.02549768684375772</v>
       </c>
       <c r="F40">
-        <v>0.08395405119859292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.01639370361779302</v>
+      </c>
+      <c r="G40">
+        <v>0.07814370601886082</v>
+      </c>
+      <c r="H40">
+        <v>0.03843737592988129</v>
+      </c>
+      <c r="I40">
+        <v>0.0316565381023563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.00868292956687673</v>
+        <v>0.00123011395666366</v>
       </c>
       <c r="C41">
-        <v>-0.003702885542053146</v>
+        <v>-0.00261992253600661</v>
       </c>
       <c r="D41">
-        <v>-0.02599521243977809</v>
+        <v>-0.0003763383472931707</v>
       </c>
       <c r="E41">
-        <v>0.01441725306274965</v>
+        <v>-0.005809132040828182</v>
       </c>
       <c r="F41">
-        <v>-0.01353014132795323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.001122031793927754</v>
+      </c>
+      <c r="G41">
+        <v>0.002124284610012922</v>
+      </c>
+      <c r="H41">
+        <v>0.05232876747596023</v>
+      </c>
+      <c r="I41">
+        <v>0.03591720378758656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3305478880816755</v>
+        <v>0.2342117674581755</v>
       </c>
       <c r="C42">
-        <v>-0.8746068564756888</v>
+        <v>-0.3254990162755405</v>
       </c>
       <c r="D42">
-        <v>0.1711902303782438</v>
+        <v>-0.04589406150672261</v>
       </c>
       <c r="E42">
-        <v>-0.2497596774321488</v>
+        <v>0.8553233796083879</v>
       </c>
       <c r="F42">
-        <v>-0.05044597150601296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2288641554046716</v>
+      </c>
+      <c r="G42">
+        <v>-0.1631405003874876</v>
+      </c>
+      <c r="H42">
+        <v>-0.01581245522975907</v>
+      </c>
+      <c r="I42">
+        <v>-0.009708391470500512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.009532209235581129</v>
+        <v>0.002272256246277137</v>
       </c>
       <c r="C43">
-        <v>-0.002344254125537505</v>
+        <v>-0.003509760694646388</v>
       </c>
       <c r="D43">
-        <v>-0.0274233252674674</v>
+        <v>-0.003248820057757429</v>
       </c>
       <c r="E43">
-        <v>0.007280795299388736</v>
+        <v>-0.002696278399367431</v>
       </c>
       <c r="F43">
-        <v>0.02042113432999661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003151921545420003</v>
+      </c>
+      <c r="G43">
+        <v>0.01288148171678814</v>
+      </c>
+      <c r="H43">
+        <v>0.04704126467942309</v>
+      </c>
+      <c r="I43">
+        <v>0.02040166673651644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02780146389156498</v>
+        <v>0.01697810492790201</v>
       </c>
       <c r="C44">
-        <v>-0.005094675755252685</v>
+        <v>-0.03329199740106627</v>
       </c>
       <c r="D44">
-        <v>-0.06156237108033952</v>
+        <v>0.002249282836886505</v>
       </c>
       <c r="E44">
-        <v>0.0210365523045872</v>
+        <v>-0.005954148854586987</v>
       </c>
       <c r="F44">
-        <v>0.1106526136141557</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0001676060958039081</v>
+      </c>
+      <c r="G44">
+        <v>0.1095352287771699</v>
+      </c>
+      <c r="H44">
+        <v>0.09957923610444301</v>
+      </c>
+      <c r="I44">
+        <v>0.0474139572236471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02934224421709588</v>
+        <v>0.02130298248289586</v>
       </c>
       <c r="C46">
-        <v>0.008907088907306036</v>
+        <v>-0.03091642371389859</v>
       </c>
       <c r="D46">
-        <v>-0.05485274586751029</v>
+        <v>-0.005584267384740388</v>
       </c>
       <c r="E46">
-        <v>0.01925992856985278</v>
+        <v>-0.02910496719275394</v>
       </c>
       <c r="F46">
-        <v>0.01387844629593119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.02045282380801787</v>
+      </c>
+      <c r="G46">
+        <v>0.04365874174452662</v>
+      </c>
+      <c r="H46">
+        <v>0.06581007406549134</v>
+      </c>
+      <c r="I46">
+        <v>0.01872725331826887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08381595980407115</v>
+        <v>0.08004243444918857</v>
       </c>
       <c r="C47">
-        <v>0.02238584068375253</v>
+        <v>-0.03137640071753189</v>
       </c>
       <c r="D47">
-        <v>-0.03963512769660468</v>
+        <v>-0.003645437159825665</v>
       </c>
       <c r="E47">
-        <v>0.01796911086231727</v>
+        <v>-0.03473548215110637</v>
       </c>
       <c r="F47">
-        <v>-0.03088919252083309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.007454847231116423</v>
+      </c>
+      <c r="G47">
+        <v>-0.02663848623351505</v>
+      </c>
+      <c r="H47">
+        <v>0.06885442450354542</v>
+      </c>
+      <c r="I47">
+        <v>0.02444639070663724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01305570238662556</v>
+        <v>0.01960538019955548</v>
       </c>
       <c r="C48">
-        <v>0.007950148603880268</v>
+        <v>-0.01191173830604511</v>
       </c>
       <c r="D48">
-        <v>-0.03201998744563066</v>
+        <v>9.45304239323284e-05</v>
       </c>
       <c r="E48">
-        <v>0.01316439943554848</v>
+        <v>-0.01209274352846039</v>
       </c>
       <c r="F48">
-        <v>0.03216855037633067</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.00975318276348572</v>
+      </c>
+      <c r="G48">
+        <v>0.02693819043682424</v>
+      </c>
+      <c r="H48">
+        <v>0.03144085327109995</v>
+      </c>
+      <c r="I48">
+        <v>0.01733990968373487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0821623008548104</v>
+        <v>0.07919294437731193</v>
       </c>
       <c r="C50">
-        <v>0.005034794011811262</v>
+        <v>-0.04550922765109584</v>
       </c>
       <c r="D50">
-        <v>-0.0387955614453619</v>
+        <v>0.008909224300487172</v>
       </c>
       <c r="E50">
-        <v>-0.00366001912814939</v>
+        <v>-0.0225046311864682</v>
       </c>
       <c r="F50">
-        <v>-0.01165452079487491</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.007920639423911508</v>
+      </c>
+      <c r="G50">
+        <v>-0.00970374362402964</v>
+      </c>
+      <c r="H50">
+        <v>0.05014329449275215</v>
+      </c>
+      <c r="I50">
+        <v>-0.00791765689868839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04716986470360517</v>
+        <v>0.03122937569802782</v>
       </c>
       <c r="C51">
-        <v>-0.001699753463599926</v>
+        <v>0.002739217083055792</v>
       </c>
       <c r="D51">
-        <v>-0.02403386390002052</v>
+        <v>-0.01079683329414332</v>
       </c>
       <c r="E51">
-        <v>-0.03969586974025856</v>
+        <v>0.009514642597642871</v>
       </c>
       <c r="F51">
-        <v>0.07310067618964768</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01674714919293759</v>
+      </c>
+      <c r="G51">
+        <v>0.08194409725868328</v>
+      </c>
+      <c r="H51">
+        <v>0.08467961953968824</v>
+      </c>
+      <c r="I51">
+        <v>0.05130369318676715</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1184093257302586</v>
+        <v>0.1086526792132726</v>
       </c>
       <c r="C53">
-        <v>0.02270471391787577</v>
+        <v>-0.05755103252770941</v>
       </c>
       <c r="D53">
-        <v>-0.07088269032683707</v>
+        <v>-0.005599786385378879</v>
       </c>
       <c r="E53">
-        <v>0.01332604698134519</v>
+        <v>-0.05274452931909696</v>
       </c>
       <c r="F53">
-        <v>-0.07201321541149983</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01372370710054656</v>
+      </c>
+      <c r="G53">
+        <v>-0.05657753896509152</v>
+      </c>
+      <c r="H53">
+        <v>0.0241633051257073</v>
+      </c>
+      <c r="I53">
+        <v>0.01737984460854334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02525074020945125</v>
+        <v>0.0266868799045915</v>
       </c>
       <c r="C54">
-        <v>0.02356755074616679</v>
+        <v>-0.004704158555783183</v>
       </c>
       <c r="D54">
-        <v>-0.02664720712414283</v>
+        <v>0.003825369451770768</v>
       </c>
       <c r="E54">
-        <v>0.01551312699891697</v>
+        <v>-0.03122368825132211</v>
       </c>
       <c r="F54">
-        <v>0.03563234955271576</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.003022374326789907</v>
+      </c>
+      <c r="G54">
+        <v>0.03112383342578882</v>
+      </c>
+      <c r="H54">
+        <v>0.06166659161828079</v>
+      </c>
+      <c r="I54">
+        <v>0.02643220311546231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1070588852530284</v>
+        <v>0.0944230722811341</v>
       </c>
       <c r="C55">
-        <v>0.02275612098899091</v>
+        <v>-0.05043771808649063</v>
       </c>
       <c r="D55">
-        <v>-0.02070604332025669</v>
+        <v>0.01025767794479572</v>
       </c>
       <c r="E55">
-        <v>0.0426311325762412</v>
+        <v>-0.04086027838337692</v>
       </c>
       <c r="F55">
-        <v>-0.03749052579136169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01066253712556599</v>
+      </c>
+      <c r="G55">
+        <v>-0.04338798348334867</v>
+      </c>
+      <c r="H55">
+        <v>0.02708546751886763</v>
+      </c>
+      <c r="I55">
+        <v>-0.01941273819085948</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1414147563424883</v>
+        <v>0.1443429393180321</v>
       </c>
       <c r="C56">
-        <v>0.06451684896065693</v>
+        <v>-0.05399904594170925</v>
       </c>
       <c r="D56">
-        <v>-0.0535467272778684</v>
+        <v>0.0001484366266983147</v>
       </c>
       <c r="E56">
-        <v>0.04377653878621495</v>
+        <v>-0.08216641900138533</v>
       </c>
       <c r="F56">
-        <v>-0.1125720438877445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.02868609086149581</v>
+      </c>
+      <c r="G56">
+        <v>-0.100238465587246</v>
+      </c>
+      <c r="H56">
+        <v>-0.0102684182231982</v>
+      </c>
+      <c r="I56">
+        <v>-0.0201138735521118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06482639180996499</v>
+        <v>0.05566342943044212</v>
       </c>
       <c r="C57">
-        <v>0.01437072226182855</v>
+        <v>-0.02524225605055432</v>
       </c>
       <c r="D57">
-        <v>-0.04764421745467751</v>
+        <v>-0.01866810931827046</v>
       </c>
       <c r="E57">
-        <v>-0.01105391308403832</v>
+        <v>0.00522875176292327</v>
       </c>
       <c r="F57">
-        <v>0.0624556824183685</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0316341281559769</v>
+      </c>
+      <c r="G57">
+        <v>0.05872511137642456</v>
+      </c>
+      <c r="H57">
+        <v>0.03302681089884828</v>
+      </c>
+      <c r="I57">
+        <v>0.02774837055982171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2145720239243514</v>
+        <v>0.1926918815704507</v>
       </c>
       <c r="C58">
-        <v>0.02344986599415358</v>
+        <v>-0.1224232973656391</v>
       </c>
       <c r="D58">
-        <v>-0.1379396807699582</v>
+        <v>-0.1014849344148554</v>
       </c>
       <c r="E58">
-        <v>0.00217877800858828</v>
+        <v>0.006727074289917408</v>
       </c>
       <c r="F58">
-        <v>0.2773638749741684</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.01118754254791936</v>
+      </c>
+      <c r="G58">
+        <v>0.3704330529422172</v>
+      </c>
+      <c r="H58">
+        <v>0.3813226887300346</v>
+      </c>
+      <c r="I58">
+        <v>-0.3373994284789943</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.0597521555505677</v>
+        <v>0.09781687763216304</v>
       </c>
       <c r="C59">
-        <v>0.1234566502121199</v>
+        <v>0.2085185186006681</v>
       </c>
       <c r="D59">
-        <v>0.1321810346508162</v>
+        <v>-0.02163448522366999</v>
       </c>
       <c r="E59">
-        <v>-0.07604811863729667</v>
+        <v>0.003416499652985595</v>
       </c>
       <c r="F59">
-        <v>0.02241063613477549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04146127449692044</v>
+      </c>
+      <c r="G59">
+        <v>0.04267849877228325</v>
+      </c>
+      <c r="H59">
+        <v>0.02446552709364747</v>
+      </c>
+      <c r="I59">
+        <v>0.0222383180598197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.182912186311378</v>
+        <v>0.1971573735183557</v>
       </c>
       <c r="C60">
-        <v>0.07346548991805232</v>
+        <v>0.01620042137799439</v>
       </c>
       <c r="D60">
-        <v>-0.006706462514332661</v>
+        <v>-0.06028893208546875</v>
       </c>
       <c r="E60">
-        <v>-0.08224935444899034</v>
+        <v>-0.02630900831919813</v>
       </c>
       <c r="F60">
-        <v>0.1455393585020848</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.02034428161618297</v>
+      </c>
+      <c r="G60">
+        <v>0.2134994696370682</v>
+      </c>
+      <c r="H60">
+        <v>-0.3504651209477126</v>
+      </c>
+      <c r="I60">
+        <v>0.05258410007408677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03406969046105775</v>
+        <v>0.03593668242844513</v>
       </c>
       <c r="C61">
-        <v>0.006236915764510765</v>
+        <v>-0.03416280297231106</v>
       </c>
       <c r="D61">
-        <v>-0.01932248469152752</v>
+        <v>-0.0004415739271023907</v>
       </c>
       <c r="E61">
-        <v>0.01487054236494211</v>
+        <v>-0.01724005869100511</v>
       </c>
       <c r="F61">
-        <v>0.0350908918785886</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0123875685422682</v>
+      </c>
+      <c r="G61">
+        <v>0.03840997344238845</v>
+      </c>
+      <c r="H61">
+        <v>-0.0156294966896313</v>
+      </c>
+      <c r="I61">
+        <v>0.01736173375540751</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03125857335567145</v>
+        <v>0.02549920007631063</v>
       </c>
       <c r="C63">
-        <v>0.01669625058607564</v>
+        <v>-0.02420312362402103</v>
       </c>
       <c r="D63">
-        <v>-0.04106559628540074</v>
+        <v>-0.002152753065332985</v>
       </c>
       <c r="E63">
-        <v>0.01311090216676917</v>
+        <v>-0.01817670448455696</v>
       </c>
       <c r="F63">
-        <v>0.0473093871167018</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01135537356590749</v>
+      </c>
+      <c r="G63">
+        <v>0.02855204858828225</v>
+      </c>
+      <c r="H63">
+        <v>0.04910932619612327</v>
+      </c>
+      <c r="I63">
+        <v>-0.001064472466445256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.04887202365792391</v>
+        <v>0.04894511132246217</v>
       </c>
       <c r="C64">
-        <v>0.0068662375525534</v>
+        <v>-0.0425633597988401</v>
       </c>
       <c r="D64">
-        <v>-0.04562332865790211</v>
+        <v>0.009839635122625881</v>
       </c>
       <c r="E64">
-        <v>0.05586613082413939</v>
+        <v>-0.02546863259292542</v>
       </c>
       <c r="F64">
-        <v>0.04659106348246654</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.009490360184780942</v>
+      </c>
+      <c r="G64">
+        <v>0.04118652559755991</v>
+      </c>
+      <c r="H64">
+        <v>0.03569189835416536</v>
+      </c>
+      <c r="I64">
+        <v>0.05938180635574725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.003594913954199527</v>
+        <v>0.03163478379261177</v>
       </c>
       <c r="C65">
-        <v>-0.001013355621347537</v>
+        <v>-0.01673869266552172</v>
       </c>
       <c r="D65">
-        <v>0.0005093689556569232</v>
+        <v>0.001689094530179518</v>
       </c>
       <c r="E65">
-        <v>-0.005276114172012265</v>
+        <v>-0.00748877821817804</v>
       </c>
       <c r="F65">
-        <v>0.002988975185102066</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02162840282984499</v>
+      </c>
+      <c r="G65">
+        <v>0.01477183820406525</v>
+      </c>
+      <c r="H65">
+        <v>-0.0379456596309573</v>
+      </c>
+      <c r="I65">
+        <v>-0.0044535946282213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05336193082597825</v>
+        <v>0.04940579346232301</v>
       </c>
       <c r="C66">
-        <v>0.02039422869064608</v>
+        <v>-0.06100153131656339</v>
       </c>
       <c r="D66">
-        <v>-0.06028454163889053</v>
+        <v>-0.01455452947389789</v>
       </c>
       <c r="E66">
-        <v>0.02613816468342539</v>
+        <v>-0.04393957555149838</v>
       </c>
       <c r="F66">
-        <v>0.08090749808098667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.02472416147792527</v>
+      </c>
+      <c r="G66">
+        <v>0.07150499125804084</v>
+      </c>
+      <c r="H66">
+        <v>-0.01877731296759852</v>
+      </c>
+      <c r="I66">
+        <v>0.01157964667013581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.035712172011106</v>
+        <v>0.04054919120574701</v>
       </c>
       <c r="C67">
-        <v>0.01652751169949386</v>
+        <v>0.003486448888779829</v>
       </c>
       <c r="D67">
-        <v>0.02261517527839473</v>
+        <v>0.001029497520113296</v>
       </c>
       <c r="E67">
-        <v>-0.007879226920277866</v>
+        <v>-0.01180985953333326</v>
       </c>
       <c r="F67">
-        <v>0.01944567280442724</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0210595544901939</v>
+      </c>
+      <c r="G67">
+        <v>0.03195140240468688</v>
+      </c>
+      <c r="H67">
+        <v>0.004841923953480334</v>
+      </c>
+      <c r="I67">
+        <v>0.04580243691624221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.07282928059832544</v>
+        <v>0.1004971651416481</v>
       </c>
       <c r="C68">
-        <v>0.1158552171725521</v>
+        <v>0.2328606204227076</v>
       </c>
       <c r="D68">
-        <v>0.1867413192955199</v>
+        <v>-0.01746966571358716</v>
       </c>
       <c r="E68">
-        <v>-0.1092248162028142</v>
+        <v>0.03334687129387483</v>
       </c>
       <c r="F68">
-        <v>-0.01839469823787542</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04334358546612101</v>
+      </c>
+      <c r="G68">
+        <v>-0.005169311625533328</v>
+      </c>
+      <c r="H68">
+        <v>0.0418311171053368</v>
+      </c>
+      <c r="I68">
+        <v>-0.01700068868098177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07212665523690197</v>
+        <v>0.06776899931168683</v>
       </c>
       <c r="C69">
-        <v>0.02849238603567874</v>
+        <v>-0.02583400776681802</v>
       </c>
       <c r="D69">
-        <v>-0.02499289387190928</v>
+        <v>-0.006384824492443411</v>
       </c>
       <c r="E69">
-        <v>-0.001068334287531577</v>
+        <v>-0.0363504339735404</v>
       </c>
       <c r="F69">
-        <v>-0.01675161352697721</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01005045966608761</v>
+      </c>
+      <c r="G69">
+        <v>-0.01127712108398451</v>
+      </c>
+      <c r="H69">
+        <v>0.04406793150016514</v>
+      </c>
+      <c r="I69">
+        <v>0.0218153702251928</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06936052132707808</v>
+        <v>0.09759210269933663</v>
       </c>
       <c r="C71">
-        <v>0.140385449880265</v>
+        <v>0.2522184539781425</v>
       </c>
       <c r="D71">
-        <v>0.2334513528378264</v>
+        <v>-0.02196216056390286</v>
       </c>
       <c r="E71">
-        <v>-0.1822874257083923</v>
+        <v>0.0460596628007667</v>
       </c>
       <c r="F71">
-        <v>0.01402393568238577</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07309735338112548</v>
+      </c>
+      <c r="G71">
+        <v>0.02060107026650518</v>
+      </c>
+      <c r="H71">
+        <v>0.02466860500288898</v>
+      </c>
+      <c r="I71">
+        <v>0.01343627288848627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1253429841985601</v>
+        <v>0.1306724340361081</v>
       </c>
       <c r="C72">
-        <v>0.08141837521437106</v>
+        <v>-0.06398719976948669</v>
       </c>
       <c r="D72">
-        <v>-0.04906297261409239</v>
+        <v>-0.01528214142710462</v>
       </c>
       <c r="E72">
-        <v>0.01960404003418808</v>
+        <v>-0.1031376345315235</v>
       </c>
       <c r="F72">
-        <v>0.05435462640811205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0116744555051079</v>
+      </c>
+      <c r="G72">
+        <v>0.1004896962171592</v>
+      </c>
+      <c r="H72">
+        <v>-0.0879333108747712</v>
+      </c>
+      <c r="I72">
+        <v>0.01926676589145687</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2742386160787968</v>
+        <v>0.2749592645112228</v>
       </c>
       <c r="C73">
-        <v>0.1133271389093322</v>
+        <v>0.01310697896638901</v>
       </c>
       <c r="D73">
-        <v>0.03665099258347483</v>
+        <v>-0.09647448599878435</v>
       </c>
       <c r="E73">
-        <v>-0.122405398138148</v>
+        <v>-0.001134156381597537</v>
       </c>
       <c r="F73">
-        <v>0.2625961834996736</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.009243507588757804</v>
+      </c>
+      <c r="G73">
+        <v>0.3030722411120266</v>
+      </c>
+      <c r="H73">
+        <v>-0.5211898000568332</v>
+      </c>
+      <c r="I73">
+        <v>0.02289674390561838</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1402111790446754</v>
+        <v>0.1363128805431378</v>
       </c>
       <c r="C74">
-        <v>0.02750062383860226</v>
+        <v>-0.06412081247596717</v>
       </c>
       <c r="D74">
-        <v>-0.04669911410862709</v>
+        <v>-0.008126720459267475</v>
       </c>
       <c r="E74">
-        <v>0.02045844391593464</v>
+        <v>-0.06101555761949429</v>
       </c>
       <c r="F74">
-        <v>-0.06383879982214573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01549616261479756</v>
+      </c>
+      <c r="G74">
+        <v>-0.0751049881385643</v>
+      </c>
+      <c r="H74">
+        <v>-0.01988839603175507</v>
+      </c>
+      <c r="I74">
+        <v>-0.009082521024686119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2160157321880943</v>
+        <v>0.2363881423176737</v>
       </c>
       <c r="C75">
-        <v>0.08864506961342904</v>
+        <v>-0.07167360580003061</v>
       </c>
       <c r="D75">
-        <v>-0.09559554657158127</v>
+        <v>-0.02987208737510517</v>
       </c>
       <c r="E75">
-        <v>0.01802301119380483</v>
+        <v>-0.1279166531789843</v>
       </c>
       <c r="F75">
-        <v>-0.1566574963097445</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.03968693818255539</v>
+      </c>
+      <c r="G75">
+        <v>-0.1502731229992165</v>
+      </c>
+      <c r="H75">
+        <v>0.01659147025547338</v>
+      </c>
+      <c r="I75">
+        <v>0.005332901975588205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2392190369742878</v>
+        <v>0.2405733152505626</v>
       </c>
       <c r="C76">
-        <v>0.1007178054896447</v>
+        <v>-0.07672369684169615</v>
       </c>
       <c r="D76">
-        <v>-0.0544318615507032</v>
+        <v>0.01438543274374543</v>
       </c>
       <c r="E76">
-        <v>0.08030034081524878</v>
+        <v>-0.1531390409984354</v>
       </c>
       <c r="F76">
-        <v>-0.1540653620136167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.0285150119657944</v>
+      </c>
+      <c r="G76">
+        <v>-0.1980284393980691</v>
+      </c>
+      <c r="H76">
+        <v>0.002174999831458861</v>
+      </c>
+      <c r="I76">
+        <v>-0.0735919870086935</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1455936417921877</v>
+        <v>0.1002114092637449</v>
       </c>
       <c r="C77">
-        <v>-0.03347371236763731</v>
+        <v>-0.08171669682715674</v>
       </c>
       <c r="D77">
-        <v>-0.07194094974881743</v>
+        <v>-0.01232462506498426</v>
       </c>
       <c r="E77">
-        <v>0.00492870042390795</v>
+        <v>0.04395999507772509</v>
       </c>
       <c r="F77">
-        <v>0.2111138752587173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.003320580189947813</v>
+      </c>
+      <c r="G77">
+        <v>0.1493593962968167</v>
+      </c>
+      <c r="H77">
+        <v>0.2249892992018153</v>
+      </c>
+      <c r="I77">
+        <v>-0.06747096216698029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08124804465448904</v>
+        <v>0.0571360299606359</v>
       </c>
       <c r="C78">
-        <v>-0.01760583927247894</v>
+        <v>-0.06806148357070196</v>
       </c>
       <c r="D78">
-        <v>-0.08138904811094683</v>
+        <v>0.0004091790376845604</v>
       </c>
       <c r="E78">
-        <v>0.048331142523746</v>
+        <v>-0.02007680765954572</v>
       </c>
       <c r="F78">
-        <v>0.04350200688239422</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.02779161940645293</v>
+      </c>
+      <c r="G78">
+        <v>0.06926608160354399</v>
+      </c>
+      <c r="H78">
+        <v>0.03166961841327226</v>
+      </c>
+      <c r="I78">
+        <v>0.020525519910175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1395838390532659</v>
+        <v>0.161473905069011</v>
       </c>
       <c r="C80">
-        <v>-0.09437629582463505</v>
+        <v>0.02453673881486916</v>
       </c>
       <c r="D80">
-        <v>0.5079849583790649</v>
+        <v>0.9717302819585474</v>
       </c>
       <c r="E80">
-        <v>0.8186745556521595</v>
+        <v>0.04479207044458434</v>
       </c>
       <c r="F80">
-        <v>0.08463476023574108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01762397961503092</v>
+      </c>
+      <c r="G80">
+        <v>0.07327944731251224</v>
+      </c>
+      <c r="H80">
+        <v>-0.02610690093459489</v>
+      </c>
+      <c r="I80">
+        <v>0.04300870685432239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1645237540507819</v>
+        <v>0.179170999887425</v>
       </c>
       <c r="C81">
-        <v>0.0692658286804827</v>
+        <v>-0.05446501733274446</v>
       </c>
       <c r="D81">
-        <v>-0.05385083660313807</v>
+        <v>-0.005549892181448548</v>
       </c>
       <c r="E81">
-        <v>0.03072716817712922</v>
+        <v>-0.1084927121626979</v>
       </c>
       <c r="F81">
-        <v>-0.1551369201144363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.02411830217800478</v>
+      </c>
+      <c r="G81">
+        <v>-0.1421594532912224</v>
+      </c>
+      <c r="H81">
+        <v>0.01728611686888973</v>
+      </c>
+      <c r="I81">
+        <v>-0.04779902270572433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06119015312203873</v>
+        <v>0.04788796409963523</v>
       </c>
       <c r="C83">
-        <v>-0.04492196786221061</v>
+        <v>-0.0464628368353035</v>
       </c>
       <c r="D83">
-        <v>-0.06609832631404092</v>
+        <v>-0.01175737952320518</v>
       </c>
       <c r="E83">
-        <v>0.007993045729825517</v>
+        <v>0.01328300410425888</v>
       </c>
       <c r="F83">
-        <v>0.0346217839482102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.00607353290647928</v>
+      </c>
+      <c r="G83">
+        <v>0.05061889685924022</v>
+      </c>
+      <c r="H83">
+        <v>0.03055430535362877</v>
+      </c>
+      <c r="I83">
+        <v>0.02611593909490651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2174602072372801</v>
+        <v>0.230344666255111</v>
       </c>
       <c r="C85">
-        <v>0.04984739970063993</v>
+        <v>-0.102253138609868</v>
       </c>
       <c r="D85">
-        <v>-0.07974830428295966</v>
+        <v>-0.01482328849396599</v>
       </c>
       <c r="E85">
-        <v>0.0643927288668073</v>
+        <v>-0.1133201037054624</v>
       </c>
       <c r="F85">
-        <v>-0.1859919704075629</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.05324262631658742</v>
+      </c>
+      <c r="G85">
+        <v>-0.1897740548463107</v>
+      </c>
+      <c r="H85">
+        <v>0.009761304169104571</v>
+      </c>
+      <c r="I85">
+        <v>-0.02655639377815901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02315641654647499</v>
+        <v>0.01690414153966519</v>
       </c>
       <c r="C86">
-        <v>-0.008940005488972263</v>
+        <v>-0.04338651381110498</v>
       </c>
       <c r="D86">
-        <v>-0.06044941236659582</v>
+        <v>-0.00130018950359726</v>
       </c>
       <c r="E86">
-        <v>0.01847125350462604</v>
+        <v>-0.02190793208580452</v>
       </c>
       <c r="F86">
-        <v>0.08503100764798031</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02684750430509125</v>
+      </c>
+      <c r="G86">
+        <v>0.08421161331813572</v>
+      </c>
+      <c r="H86">
+        <v>0.06368758392136334</v>
+      </c>
+      <c r="I86">
+        <v>0.000454878448621475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01623074657957651</v>
+        <v>0.02560247532644934</v>
       </c>
       <c r="C87">
-        <v>0.03484188737727596</v>
+        <v>0.01071986844053984</v>
       </c>
       <c r="D87">
-        <v>0.04236890721803194</v>
+        <v>0.0004848534507033472</v>
       </c>
       <c r="E87">
-        <v>-0.03171540466960212</v>
+        <v>-0.002218653986037039</v>
       </c>
       <c r="F87">
-        <v>0.09949710579696527</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.00543900041036826</v>
+      </c>
+      <c r="G87">
+        <v>0.1077835646583495</v>
+      </c>
+      <c r="H87">
+        <v>0.004780457070716245</v>
+      </c>
+      <c r="I87">
+        <v>-0.01621014753141613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0156792353348336</v>
+        <v>0.03312726457908293</v>
       </c>
       <c r="C88">
-        <v>0.01094618396949242</v>
+        <v>0.00584547887022408</v>
       </c>
       <c r="D88">
-        <v>0.005267844427145831</v>
+        <v>0.003870401821491447</v>
       </c>
       <c r="E88">
-        <v>0.02076961557796882</v>
+        <v>-0.01368624943104816</v>
       </c>
       <c r="F88">
-        <v>-0.01212115961212752</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.006886299626492912</v>
+      </c>
+      <c r="G88">
+        <v>-0.008971681839419123</v>
+      </c>
+      <c r="H88">
+        <v>0.01696573777392199</v>
+      </c>
+      <c r="I88">
+        <v>0.06190524725822032</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.1083073939673716</v>
+        <v>0.1638883586823236</v>
       </c>
       <c r="C89">
-        <v>0.1366568171451989</v>
+        <v>0.3744188191357614</v>
       </c>
       <c r="D89">
-        <v>0.2620926386234922</v>
+        <v>-0.05337813096621895</v>
       </c>
       <c r="E89">
-        <v>-0.1976703220781317</v>
+        <v>0.0676322837673138</v>
       </c>
       <c r="F89">
-        <v>-4.0579618825886e-06</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.06718867138865196</v>
+      </c>
+      <c r="G89">
+        <v>0.001771653767245229</v>
+      </c>
+      <c r="H89">
+        <v>0.1034296255250151</v>
+      </c>
+      <c r="I89">
+        <v>-0.0009164789995204774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08947073909472004</v>
+        <v>0.1151831105780187</v>
       </c>
       <c r="C90">
-        <v>0.1341937990803738</v>
+        <v>0.3127843803527741</v>
       </c>
       <c r="D90">
-        <v>0.2600475008472175</v>
+        <v>-0.02586126011746349</v>
       </c>
       <c r="E90">
-        <v>-0.1308868996977851</v>
+        <v>0.05723443506898213</v>
       </c>
       <c r="F90">
-        <v>0.0008564800629685474</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.06254362837761795</v>
+      </c>
+      <c r="G90">
+        <v>-0.02527501432295792</v>
+      </c>
+      <c r="H90">
+        <v>0.06831632070627025</v>
+      </c>
+      <c r="I90">
+        <v>-0.005659802001245062</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2719922393133888</v>
+        <v>0.2676739713669279</v>
       </c>
       <c r="C91">
-        <v>0.05486258848989516</v>
+        <v>-0.1227542415057789</v>
       </c>
       <c r="D91">
-        <v>-0.1158779902557049</v>
+        <v>-0.01734256486703377</v>
       </c>
       <c r="E91">
-        <v>0.08145807267518985</v>
+        <v>-0.1281273545096984</v>
       </c>
       <c r="F91">
-        <v>-0.2495382405305029</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.02918393380660576</v>
+      </c>
+      <c r="G91">
+        <v>-0.2543276962809336</v>
+      </c>
+      <c r="H91">
+        <v>0.03273152759884816</v>
+      </c>
+      <c r="I91">
+        <v>-0.07256813978586392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1400542026486912</v>
+        <v>0.202856887156098</v>
       </c>
       <c r="C92">
-        <v>0.1045988673720127</v>
+        <v>0.3124482096795588</v>
       </c>
       <c r="D92">
-        <v>0.2907514208388987</v>
+        <v>-0.009714401315001954</v>
       </c>
       <c r="E92">
-        <v>-0.1373081828880489</v>
+        <v>0.03959854380310391</v>
       </c>
       <c r="F92">
-        <v>-0.02479486867593329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1345157689084922</v>
+      </c>
+      <c r="G92">
+        <v>-0.08588990824449109</v>
+      </c>
+      <c r="H92">
+        <v>0.1668911374449901</v>
+      </c>
+      <c r="I92">
+        <v>-0.009624685344141957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0923567960547651</v>
+        <v>0.14353514498779</v>
       </c>
       <c r="C93">
-        <v>0.1303324493356289</v>
+        <v>0.3744766300905045</v>
       </c>
       <c r="D93">
-        <v>0.320507952636991</v>
+        <v>-0.03979049486161488</v>
       </c>
       <c r="E93">
-        <v>-0.1767206664963509</v>
+        <v>0.09302938069264151</v>
       </c>
       <c r="F93">
-        <v>-0.05937010558416406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.1056132593924531</v>
+      </c>
+      <c r="G93">
+        <v>-0.04216835862406573</v>
+      </c>
+      <c r="H93">
+        <v>0.01405769978950224</v>
+      </c>
+      <c r="I93">
+        <v>0.02973614673344396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2647472236583887</v>
+        <v>0.2947933765029138</v>
       </c>
       <c r="C94">
-        <v>0.1089976128532303</v>
+        <v>-0.03930087030020822</v>
       </c>
       <c r="D94">
-        <v>-0.002922819661300838</v>
+        <v>-0.03784464791810734</v>
       </c>
       <c r="E94">
-        <v>0.01894826403858344</v>
+        <v>-0.1406853320520565</v>
       </c>
       <c r="F94">
-        <v>-0.2413478548350999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.0622020014722628</v>
+      </c>
+      <c r="G94">
+        <v>-0.2782414497695636</v>
+      </c>
+      <c r="H94">
+        <v>0.007929274637408942</v>
+      </c>
+      <c r="I94">
+        <v>-0.2227982171741139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1403689311770941</v>
+        <v>0.1165904435860341</v>
       </c>
       <c r="C95">
-        <v>-0.01485034120950295</v>
+        <v>-0.0997440855564069</v>
       </c>
       <c r="D95">
-        <v>-0.1984745883541169</v>
+        <v>-0.08076464421314083</v>
       </c>
       <c r="E95">
-        <v>0.04374849213531216</v>
+        <v>-0.06677025046871056</v>
       </c>
       <c r="F95">
-        <v>-0.4382601098938562</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.05766705476185714</v>
+      </c>
+      <c r="G95">
+        <v>-0.09070648096170253</v>
+      </c>
+      <c r="H95">
+        <v>0.1527688972116282</v>
+      </c>
+      <c r="I95">
+        <v>0.868876224671785</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.20785629347812</v>
+        <v>0.2128694385626517</v>
       </c>
       <c r="C98">
-        <v>0.04899530149223149</v>
+        <v>0.01465217587083581</v>
       </c>
       <c r="D98">
-        <v>0.005084702791248</v>
+        <v>-0.06651871738932867</v>
       </c>
       <c r="E98">
-        <v>-0.08761814403293733</v>
+        <v>0.002260560057684026</v>
       </c>
       <c r="F98">
-        <v>0.0912054714703265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.0365043145452256</v>
+      </c>
+      <c r="G98">
+        <v>0.2175759140018612</v>
+      </c>
+      <c r="H98">
+        <v>-0.3652413219741467</v>
+      </c>
+      <c r="I98">
+        <v>0.03125684457503174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002392514784539754</v>
+        <v>0.01452728251132191</v>
       </c>
       <c r="C101">
-        <v>0.01494938995098027</v>
+        <v>-0.0256007348181545</v>
       </c>
       <c r="D101">
-        <v>-0.06300748264340179</v>
+        <v>0.002058155264131713</v>
       </c>
       <c r="E101">
-        <v>0.04232328932478705</v>
+        <v>-0.03088540054364457</v>
       </c>
       <c r="F101">
-        <v>0.02487233744383917</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02370430686705407</v>
+      </c>
+      <c r="G101">
+        <v>0.07211237454067583</v>
+      </c>
+      <c r="H101">
+        <v>0.1193986899836959</v>
+      </c>
+      <c r="I101">
+        <v>-0.01840157941332575</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.08926510315899339</v>
+        <v>0.1128372744298928</v>
       </c>
       <c r="C102">
-        <v>0.02269744215724582</v>
+        <v>-0.04290761698298292</v>
       </c>
       <c r="D102">
-        <v>-0.04327028455839057</v>
+        <v>-0.001255842055577949</v>
       </c>
       <c r="E102">
-        <v>0.04657311843835262</v>
+        <v>-0.05136243421673205</v>
       </c>
       <c r="F102">
-        <v>-0.09666718033923322</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.03787032086161141</v>
+      </c>
+      <c r="G102">
+        <v>-0.1075373423778044</v>
+      </c>
+      <c r="H102">
+        <v>0.006850282441660373</v>
+      </c>
+      <c r="I102">
+        <v>-0.009499219162888083</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01440322111636106</v>
+        <v>0.02418152778651236</v>
       </c>
       <c r="C103">
-        <v>0.008378433465733515</v>
+        <v>-0.01013219572119518</v>
       </c>
       <c r="D103">
-        <v>-0.002530930372415321</v>
+        <v>0.008402752332719747</v>
       </c>
       <c r="E103">
-        <v>0.008241353940145359</v>
+        <v>-0.01631497727295074</v>
       </c>
       <c r="F103">
-        <v>-0.02224466508827783</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.005829889113055865</v>
+      </c>
+      <c r="G103">
+        <v>-0.01979825197159236</v>
+      </c>
+      <c r="H103">
+        <v>0.016558527473723</v>
+      </c>
+      <c r="I103">
+        <v>0.001643487354538699</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.06901488324708735</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.1585841458204281</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.0451966578633653</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.2885401411445954</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.9274897624840095</v>
+      </c>
+      <c r="G104">
+        <v>-0.01245451043547158</v>
+      </c>
+      <c r="H104">
+        <v>0.02707721159042096</v>
+      </c>
+      <c r="I104">
+        <v>0.08083492249382722</v>
       </c>
     </row>
   </sheetData>
